--- a/average_satisfaction_divergent_g5.xlsx
+++ b/average_satisfaction_divergent_g5.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Downloads\multiagentsystems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtzortzi\Downloads\MA_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4592911D-014A-4281-9B19-F127C38C8494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D915C61E-BB9A-4432-B82E-62310837BAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{ED0FC598-2D08-46C0-9EA7-7F2300A94239}"/>
+    <workbookView xWindow="3060" yWindow="1824" windowWidth="17280" windowHeight="8964" xr2:uid="{1588380D-23E8-488F-9F86-7C2E33F80D7F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48190567-819E-462B-B631-CEE75E3EB031}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF6AAC5-0C34-4EAF-AD52-8448FF6DB394}">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -388,304 +388,304 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1.0089666447662278</v>
+        <v>1.0222514591822212</v>
       </c>
       <c r="B1">
-        <v>1.0756297177821279</v>
+        <v>1.0995814536377091</v>
       </c>
       <c r="C1">
-        <v>1.0386576211203669</v>
+        <v>0.87764185672030204</v>
       </c>
       <c r="D1">
-        <v>1.1138743778032758</v>
+        <v>1.0558152592671317</v>
       </c>
       <c r="E1">
-        <v>1.0136573541524025</v>
+        <v>1.0960148756683588</v>
       </c>
       <c r="F1">
-        <v>1.1456669192921305</v>
+        <v>1.0412476119157408</v>
       </c>
       <c r="G1">
+        <v>1.1295332138042344</v>
+      </c>
+      <c r="H1">
+        <v>0.91308260949738607</v>
+      </c>
+      <c r="I1">
+        <v>1.1278431924591648</v>
+      </c>
+      <c r="J1">
+        <v>1.0117995654583596</v>
+      </c>
+      <c r="K1">
+        <v>0.99128844162599072</v>
+      </c>
+      <c r="L1">
+        <v>1.0877943941472623</v>
+      </c>
+      <c r="M1">
+        <v>1.1382668984874715</v>
+      </c>
+      <c r="N1">
+        <v>1.0971645129689016</v>
+      </c>
+      <c r="O1">
+        <v>1.0450409677631245</v>
+      </c>
+      <c r="P1">
+        <v>1.0041819184914889</v>
+      </c>
+      <c r="Q1">
+        <v>1.0162206514299224</v>
+      </c>
+      <c r="R1">
+        <v>1.1470356528336159</v>
+      </c>
+      <c r="S1">
+        <v>1.0612281905607144</v>
+      </c>
+      <c r="T1">
+        <v>1.0851952370420601</v>
+      </c>
+      <c r="U1">
+        <v>1.2230547249837338</v>
+      </c>
+      <c r="V1">
+        <v>1.0445349042318344</v>
+      </c>
+      <c r="W1">
+        <v>1.0412215765308079</v>
+      </c>
+      <c r="X1">
+        <v>1.143630893410067</v>
+      </c>
+      <c r="Y1">
+        <v>1.0677260270654785</v>
+      </c>
+      <c r="Z1">
+        <v>0.92034023369946227</v>
+      </c>
+      <c r="AA1">
+        <v>1.0477073798625096</v>
+      </c>
+      <c r="AB1">
+        <v>1.1274362838133742</v>
+      </c>
+      <c r="AC1">
+        <v>1.0416315017851752</v>
+      </c>
+      <c r="AD1">
+        <v>1.1907417583384297</v>
+      </c>
+      <c r="AE1">
+        <v>0.90109291692317173</v>
+      </c>
+      <c r="AF1">
+        <v>0.98879550920080161</v>
+      </c>
+      <c r="AG1">
+        <v>0.97953942977405972</v>
+      </c>
+      <c r="AH1">
+        <v>1.1550099081602945</v>
+      </c>
+      <c r="AI1">
+        <v>1.1439765716013266</v>
+      </c>
+      <c r="AJ1">
+        <v>1.0059083872732695</v>
+      </c>
+      <c r="AK1">
+        <v>1.047612744672646</v>
+      </c>
+      <c r="AL1">
+        <v>1.0127943268330448</v>
+      </c>
+      <c r="AM1">
+        <v>0.97513895707158982</v>
+      </c>
+      <c r="AN1">
+        <v>1.1252396653190366</v>
+      </c>
+      <c r="AO1">
+        <v>1.2247630286786786</v>
+      </c>
+      <c r="AP1">
+        <v>0.98156871411044921</v>
+      </c>
+      <c r="AQ1">
+        <v>1.1322728353427807</v>
+      </c>
+      <c r="AR1">
+        <v>1.2013502392335138</v>
+      </c>
+      <c r="AS1">
+        <v>0.9683261774033346</v>
+      </c>
+      <c r="AT1">
+        <v>0.94919512188878297</v>
+      </c>
+      <c r="AU1">
+        <v>1.092358421795925</v>
+      </c>
+      <c r="AV1">
+        <v>1.0299481386963769</v>
+      </c>
+      <c r="AW1">
+        <v>1.1114187949643866</v>
+      </c>
+      <c r="AX1">
+        <v>0.96409231163392539</v>
+      </c>
+      <c r="AY1">
+        <v>1.1306709440609946</v>
+      </c>
+      <c r="AZ1">
+        <v>0.98385192711338698</v>
+      </c>
+      <c r="BA1">
+        <v>0.98333816518124095</v>
+      </c>
+      <c r="BB1">
+        <v>1.0804926416724123</v>
+      </c>
+      <c r="BC1">
+        <v>1.2045364863736883</v>
+      </c>
+      <c r="BD1">
+        <v>1.1017321048058126</v>
+      </c>
+      <c r="BE1">
+        <v>1.0966271619316039</v>
+      </c>
+      <c r="BF1">
+        <v>1.0888033396630803</v>
+      </c>
+      <c r="BG1">
+        <v>1.074551241547542</v>
+      </c>
+      <c r="BH1">
         <v>1.1634518572230919</v>
       </c>
-      <c r="H1">
-        <v>0.99955702611112429</v>
-      </c>
-      <c r="I1">
-        <v>0.99388013306819756</v>
-      </c>
-      <c r="J1">
-        <v>1.0065762266474529</v>
-      </c>
-      <c r="K1">
-        <v>1.0722456091824724</v>
-      </c>
-      <c r="L1">
+      <c r="BI1">
+        <v>1.1080147988694879</v>
+      </c>
+      <c r="BJ1">
+        <v>1.0326470596630395</v>
+      </c>
+      <c r="BK1">
+        <v>1.0449838839326031</v>
+      </c>
+      <c r="BL1">
+        <v>1.2051245822312608</v>
+      </c>
+      <c r="BM1">
+        <v>1.0325728627709603</v>
+      </c>
+      <c r="BN1">
+        <v>0.9394269097668535</v>
+      </c>
+      <c r="BO1">
+        <v>1.0375317208838286</v>
+      </c>
+      <c r="BP1">
+        <v>1.1714860076247737</v>
+      </c>
+      <c r="BQ1">
+        <v>1.0850225726794445</v>
+      </c>
+      <c r="BR1">
+        <v>1.1968463030952805</v>
+      </c>
+      <c r="BS1">
+        <v>0.90716353635081148</v>
+      </c>
+      <c r="BT1">
+        <v>1.1592523721378116</v>
+      </c>
+      <c r="BU1">
+        <v>1.0096942295099842</v>
+      </c>
+      <c r="BV1">
+        <v>1.0015913121723401</v>
+      </c>
+      <c r="BW1">
+        <v>1.1187892569716724</v>
+      </c>
+      <c r="BX1">
+        <v>1.1521219114762906</v>
+      </c>
+      <c r="BY1">
+        <v>1.1545522564745676</v>
+      </c>
+      <c r="BZ1">
+        <v>1.0293171315871923</v>
+      </c>
+      <c r="CA1">
+        <v>1.0316745673103576</v>
+      </c>
+      <c r="CB1">
+        <v>1.0198027919543839</v>
+      </c>
+      <c r="CC1">
+        <v>1.0697361330530601</v>
+      </c>
+      <c r="CD1">
+        <v>1.0405326650168487</v>
+      </c>
+      <c r="CE1">
+        <v>1.1325791455407959</v>
+      </c>
+      <c r="CF1">
+        <v>1.023494446192778</v>
+      </c>
+      <c r="CG1">
+        <v>1.0931835094735198</v>
+      </c>
+      <c r="CH1">
+        <v>1.1069916065151129</v>
+      </c>
+      <c r="CI1">
+        <v>1.1813824230978767</v>
+      </c>
+      <c r="CJ1">
+        <v>0.98850400521845305</v>
+      </c>
+      <c r="CK1">
+        <v>1.0133521915538592</v>
+      </c>
+      <c r="CL1">
+        <v>0.95772199661935031</v>
+      </c>
+      <c r="CM1">
+        <v>1.2362217226281924</v>
+      </c>
+      <c r="CN1">
+        <v>1.1286591481583288</v>
+      </c>
+      <c r="CO1">
+        <v>0.99715883405769212</v>
+      </c>
+      <c r="CP1">
+        <v>1.1106782044160679</v>
+      </c>
+      <c r="CQ1">
+        <v>1.2068827518875269</v>
+      </c>
+      <c r="CR1">
+        <v>1.0961909513617687</v>
+      </c>
+      <c r="CS1">
+        <v>1.0733539645496728</v>
+      </c>
+      <c r="CT1">
+        <v>1.0217947863574459</v>
+      </c>
+      <c r="CU1">
+        <v>1.1488415548550048</v>
+      </c>
+      <c r="CV1">
         <v>1.0746334678555727</v>
-      </c>
-      <c r="M1">
-        <v>1.0612281905607144</v>
-      </c>
-      <c r="N1">
-        <v>1.1593446550967235</v>
-      </c>
-      <c r="O1">
-        <v>1.0762215518849185</v>
-      </c>
-      <c r="P1">
-        <v>1.0129476395954431</v>
-      </c>
-      <c r="Q1">
-        <v>1.0080214181458709</v>
-      </c>
-      <c r="R1">
-        <v>0.98156871411044921</v>
-      </c>
-      <c r="S1">
-        <v>1.0535073294654176</v>
-      </c>
-      <c r="T1">
-        <v>0.95048648711871919</v>
-      </c>
-      <c r="U1">
-        <v>1.0996008843070346</v>
-      </c>
-      <c r="V1">
-        <v>0.99757174003667937</v>
-      </c>
-      <c r="W1">
-        <v>1.1312361769023116</v>
-      </c>
-      <c r="X1">
-        <v>1.1835241261653704</v>
-      </c>
-      <c r="Y1">
-        <v>1.1168941719812104</v>
-      </c>
-      <c r="Z1">
-        <v>1.1479401450816151</v>
-      </c>
-      <c r="AA1">
-        <v>1.1518800873325048</v>
-      </c>
-      <c r="AB1">
-        <v>1.0240406899607926</v>
-      </c>
-      <c r="AC1">
-        <v>1.0793422336056109</v>
-      </c>
-      <c r="AD1">
-        <v>1.0883795332619244</v>
-      </c>
-      <c r="AE1">
-        <v>1.0773650911354244</v>
-      </c>
-      <c r="AF1">
-        <v>1.0841630733068539</v>
-      </c>
-      <c r="AG1">
-        <v>1.0885100763093873</v>
-      </c>
-      <c r="AH1">
-        <v>1.1993783065950068</v>
-      </c>
-      <c r="AI1">
-        <v>1.2247630286786786</v>
-      </c>
-      <c r="AJ1">
-        <v>1.0295458609879926</v>
-      </c>
-      <c r="AK1">
-        <v>1.1306709440609946</v>
-      </c>
-      <c r="AL1">
-        <v>1.1068860224707311</v>
-      </c>
-      <c r="AM1">
-        <v>1.0991340274988699</v>
-      </c>
-      <c r="AN1">
-        <v>1.1149872178455962</v>
-      </c>
-      <c r="AO1">
-        <v>1.1799318040180318</v>
-      </c>
-      <c r="AP1">
-        <v>0.92215458992851806</v>
-      </c>
-      <c r="AQ1">
-        <v>1.0662432704076905</v>
-      </c>
-      <c r="AR1">
-        <v>0.98493706274484216</v>
-      </c>
-      <c r="AS1">
-        <v>1.1187196825280943</v>
-      </c>
-      <c r="AT1">
-        <v>1.0494068407475845</v>
-      </c>
-      <c r="AU1">
-        <v>1.0276470083420461</v>
-      </c>
-      <c r="AV1">
-        <v>1.0521465020322684</v>
-      </c>
-      <c r="AW1">
-        <v>0.94919512188878297</v>
-      </c>
-      <c r="AX1">
-        <v>0.89412331979982362</v>
-      </c>
-      <c r="AY1">
-        <v>1.161282350618247</v>
-      </c>
-      <c r="AZ1">
-        <v>1.0236412311678755</v>
-      </c>
-      <c r="BA1">
-        <v>1.0871974853607895</v>
-      </c>
-      <c r="BB1">
-        <v>0.98715941488672587</v>
-      </c>
-      <c r="BC1">
-        <v>1.0844376889387117</v>
-      </c>
-      <c r="BD1">
-        <v>1.1526682789583766</v>
-      </c>
-      <c r="BE1">
-        <v>1.1969212535679257</v>
-      </c>
-      <c r="BF1">
-        <v>1.0439685802883143</v>
-      </c>
-      <c r="BG1">
-        <v>1.1740076099362031</v>
-      </c>
-      <c r="BH1">
-        <v>1.1106782044160679</v>
-      </c>
-      <c r="BI1">
-        <v>1.0252053701525727</v>
-      </c>
-      <c r="BJ1">
-        <v>0.96248994493383566</v>
-      </c>
-      <c r="BK1">
-        <v>1.0169945452284093</v>
-      </c>
-      <c r="BL1">
-        <v>1.0792260084749825</v>
-      </c>
-      <c r="BM1">
-        <v>1.0532119165992484</v>
-      </c>
-      <c r="BN1">
-        <v>1.1322728353427807</v>
-      </c>
-      <c r="BO1">
-        <v>1.0101381597033572</v>
-      </c>
-      <c r="BP1">
-        <v>1.1907417583384297</v>
-      </c>
-      <c r="BQ1">
-        <v>0.92811164523650858</v>
-      </c>
-      <c r="BR1">
-        <v>1.0923584217959248</v>
-      </c>
-      <c r="BS1">
-        <v>0.89935936140288841</v>
-      </c>
-      <c r="BT1">
-        <v>1.0999502201956297</v>
-      </c>
-      <c r="BU1">
-        <v>1.1680997524874563</v>
-      </c>
-      <c r="BV1">
-        <v>0.91704528841679844</v>
-      </c>
-      <c r="BW1">
-        <v>1.0529134342592432</v>
-      </c>
-      <c r="BX1">
-        <v>1.0199364378906617</v>
-      </c>
-      <c r="BY1">
-        <v>1.0978478377136356</v>
-      </c>
-      <c r="BZ1">
-        <v>1.1631203684538871</v>
-      </c>
-      <c r="CA1">
-        <v>1.0961328463064199</v>
-      </c>
-      <c r="CB1">
-        <v>1.0643237146028388</v>
-      </c>
-      <c r="CC1">
-        <v>0.99909372514028894</v>
-      </c>
-      <c r="CD1">
-        <v>1.0082629068263951</v>
-      </c>
-      <c r="CE1">
-        <v>1.1042058936739199</v>
-      </c>
-      <c r="CF1">
-        <v>1.0443901607190627</v>
-      </c>
-      <c r="CG1">
-        <v>1.0842375736018113</v>
-      </c>
-      <c r="CH1">
-        <v>1.1170849757969166</v>
-      </c>
-      <c r="CI1">
-        <v>1.0666873887910755</v>
-      </c>
-      <c r="CJ1">
-        <v>0.95702820014938128</v>
-      </c>
-      <c r="CK1">
-        <v>1.0625840592090048</v>
-      </c>
-      <c r="CL1">
-        <v>1.2266473105557592</v>
-      </c>
-      <c r="CM1">
-        <v>1.0872794379484461</v>
-      </c>
-      <c r="CN1">
-        <v>0.98138149238674199</v>
-      </c>
-      <c r="CO1">
-        <v>1.2653306060969853</v>
-      </c>
-      <c r="CP1">
-        <v>1.0671247894627702</v>
-      </c>
-      <c r="CQ1">
-        <v>0.95635692468360389</v>
-      </c>
-      <c r="CR1">
-        <v>1.1352206534288027</v>
-      </c>
-      <c r="CS1">
-        <v>1.050965578849858</v>
-      </c>
-      <c r="CT1">
-        <v>1.1159198492801818</v>
-      </c>
-      <c r="CU1">
-        <v>0.9883008868679849</v>
-      </c>
-      <c r="CV1">
-        <v>1.0502632080419001</v>
       </c>
     </row>
   </sheetData>
